--- a/data/nn-evolution.xlsx
+++ b/data/nn-evolution.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -83,12 +83,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -102,7 +105,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -174,7 +176,7 @@
                   <c:v>36.1233</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>59.265</c:v>
+                  <c:v>59.265000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>48.9833</c:v>
@@ -183,25 +185,25 @@
                   <c:v>58.2117</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>62.265</c:v>
+                  <c:v>62.265000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>54.835</c:v>
+                  <c:v>54.835000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>63.9833</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>64.0683</c:v>
+                  <c:v>64.068299999999994</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>68.07170000000001</c:v>
+                  <c:v>68.071700000000007</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>69.9883</c:v>
+                  <c:v>69.988299999999995</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>67.7033</c:v>
+                  <c:v>67.703299999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>67.3917</c:v>
@@ -210,88 +212,88 @@
                   <c:v>68.25</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>69.645</c:v>
+                  <c:v>69.644999999999996</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>68.4783</c:v>
+                  <c:v>68.478300000000004</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>63.07</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>71.5283</c:v>
+                  <c:v>71.528300000000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>70.3617</c:v>
+                  <c:v>70.361699999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>69.175</c:v>
+                  <c:v>69.174999999999997</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>69.0667</c:v>
+                  <c:v>69.066699999999997</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>67.5417</c:v>
+                  <c:v>67.541700000000006</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>70.88500000000001</c:v>
+                  <c:v>70.885000000000005</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>73.9067</c:v>
+                  <c:v>73.906700000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>72.3867</c:v>
+                  <c:v>72.386700000000005</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>74.3467</c:v>
+                  <c:v>74.346699999999998</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>71.32170000000001</c:v>
+                  <c:v>71.321700000000007</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>69.55500000000001</c:v>
+                  <c:v>69.555000000000007</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>74.485</c:v>
+                  <c:v>74.484999999999999</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>75.54</c:v>
+                  <c:v>75.540000000000006</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>69.495</c:v>
+                  <c:v>69.495000000000005</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>76.5333</c:v>
+                  <c:v>76.533299999999997</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>74.74</c:v>
+                  <c:v>74.739999999999995</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>69.3917</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>75.7117</c:v>
+                  <c:v>75.711699999999993</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>70.84</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>71.5817</c:v>
+                  <c:v>71.581699999999998</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>70.77670000000001</c:v>
+                  <c:v>70.776700000000005</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>77.2633</c:v>
+                  <c:v>77.263300000000001</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>74.6017</c:v>
+                  <c:v>74.601699999999994</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>72.175</c:v>
+                  <c:v>72.174999999999997</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>76.0767</c:v>
+                  <c:v>76.076700000000002</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>72.125</c:v>
@@ -300,94 +302,94 @@
                   <c:v>76.23</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>79.16330000000001</c:v>
+                  <c:v>79.163300000000007</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>79.92</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>79.66500000000001</c:v>
+                  <c:v>79.665000000000006</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>79.01</c:v>
+                  <c:v>79.010000000000005</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>74.7633</c:v>
+                  <c:v>74.763300000000001</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>73.0833</c:v>
+                  <c:v>73.083299999999994</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>78.765</c:v>
+                  <c:v>78.765000000000001</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>78.77</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>76.6017</c:v>
+                  <c:v>76.601699999999994</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>72.0683</c:v>
+                  <c:v>72.068299999999994</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>78.8717</c:v>
+                  <c:v>78.871700000000004</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>77.0433</c:v>
+                  <c:v>77.043300000000002</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>78.9683</c:v>
+                  <c:v>78.968299999999999</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>78.27</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>79.565</c:v>
+                  <c:v>79.564999999999998</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>77.09</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>78.7017</c:v>
+                  <c:v>78.701700000000002</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>77.15000000000001</c:v>
+                  <c:v>77.150000000000006</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>76.7283</c:v>
+                  <c:v>76.728300000000004</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>77.4383</c:v>
+                  <c:v>77.438299999999998</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>76.0067</c:v>
+                  <c:v>76.006699999999995</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>78.1233</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>80.8233</c:v>
+                  <c:v>80.823300000000003</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>77.2133</c:v>
+                  <c:v>77.213300000000004</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>77.0533</c:v>
+                  <c:v>77.053299999999993</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>79.565</c:v>
+                  <c:v>79.564999999999998</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>78.6617</c:v>
+                  <c:v>78.661699999999996</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>80.43</c:v>
+                  <c:v>80.430000000000007</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>78.2067</c:v>
+                  <c:v>78.206699999999998</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>79.315</c:v>
+                  <c:v>79.314999999999998</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>77.6083</c:v>
@@ -396,235 +398,235 @@
                   <c:v>78.9833</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>77.4017</c:v>
+                  <c:v>77.401700000000005</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>79.9017</c:v>
+                  <c:v>79.901700000000005</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>78.825</c:v>
+                  <c:v>78.825000000000003</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>81.5167</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>80.7833</c:v>
+                  <c:v>80.783299999999997</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>78.9883</c:v>
+                  <c:v>78.988299999999995</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>81.7983</c:v>
+                  <c:v>81.798299999999998</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>81.55500000000001</c:v>
+                  <c:v>81.555000000000007</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>81.4183</c:v>
+                  <c:v>81.418300000000002</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>83.0967</c:v>
+                  <c:v>83.096699999999998</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>82.2433</c:v>
+                  <c:v>82.243300000000005</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>81.9017</c:v>
+                  <c:v>81.901700000000005</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>80.8183</c:v>
+                  <c:v>80.818299999999994</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>82.2317</c:v>
+                  <c:v>82.231700000000004</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>78.825</c:v>
+                  <c:v>78.825000000000003</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>77.5783</c:v>
+                  <c:v>77.578299999999999</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>80.4533</c:v>
+                  <c:v>80.453299999999999</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>76.7033</c:v>
+                  <c:v>76.703299999999999</c:v>
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>70.6417</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>77.52670000000001</c:v>
+                  <c:v>77.526700000000005</c:v>
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>80.69</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>82.155</c:v>
+                  <c:v>82.155000000000001</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>76.5133</c:v>
+                  <c:v>76.513300000000001</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>78.66330000000001</c:v>
+                  <c:v>78.663300000000007</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>80.9783</c:v>
+                  <c:v>80.978300000000004</c:v>
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>80.09</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>82.8383</c:v>
+                  <c:v>82.838300000000004</c:v>
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>82.2517</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>81.845</c:v>
+                  <c:v>81.844999999999999</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>82.3933</c:v>
+                  <c:v>82.393299999999996</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>82.5367</c:v>
+                  <c:v>82.536699999999996</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>82.1467</c:v>
+                  <c:v>82.146699999999996</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>81.88330000000001</c:v>
+                  <c:v>81.883300000000006</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>80.0533</c:v>
+                  <c:v>80.053299999999993</c:v>
                 </c:pt>
                 <c:pt idx="109">
                   <c:v>81.36</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>80.3367</c:v>
+                  <c:v>80.336699999999993</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>77.6917</c:v>
+                  <c:v>77.691699999999997</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>79.1583</c:v>
+                  <c:v>79.158299999999997</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>80.2317</c:v>
+                  <c:v>80.231700000000004</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>80.79</c:v>
+                  <c:v>80.790000000000006</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>81.00830000000001</c:v>
+                  <c:v>81.008300000000006</c:v>
                 </c:pt>
                 <c:pt idx="116">
                   <c:v>82.31</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>80.8633</c:v>
+                  <c:v>80.863299999999995</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>82.4633</c:v>
+                  <c:v>82.463300000000004</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>80.3567</c:v>
+                  <c:v>80.356700000000004</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>79.8783</c:v>
+                  <c:v>79.878299999999996</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>80.5733</c:v>
+                  <c:v>80.573300000000003</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>81.6383</c:v>
+                  <c:v>81.638300000000001</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>80.2983</c:v>
+                  <c:v>80.298299999999998</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>82.8083</c:v>
+                  <c:v>82.808300000000003</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>83.6383</c:v>
+                  <c:v>83.638300000000001</c:v>
                 </c:pt>
                 <c:pt idx="126">
                   <c:v>83.09</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>82.655</c:v>
+                  <c:v>82.655000000000001</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>83.645</c:v>
+                  <c:v>83.644999999999996</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>84.0933</c:v>
+                  <c:v>84.093299999999999</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>83.335</c:v>
+                  <c:v>83.334999999999994</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>80.2917</c:v>
+                  <c:v>80.291700000000006</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>82.1833</c:v>
+                  <c:v>82.183300000000003</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>82.38500000000001</c:v>
+                  <c:v>82.385000000000005</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>83.8117</c:v>
+                  <c:v>83.811700000000002</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>80.65170000000001</c:v>
+                  <c:v>80.651700000000005</c:v>
                 </c:pt>
                 <c:pt idx="136">
                   <c:v>83.44</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>82.2567</c:v>
+                  <c:v>82.256699999999995</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>81.065</c:v>
+                  <c:v>81.064999999999998</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>81.4483</c:v>
+                  <c:v>81.448300000000003</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>82.05500000000001</c:v>
+                  <c:v>82.055000000000007</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>80.245</c:v>
+                  <c:v>80.245000000000005</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>78.8867</c:v>
+                  <c:v>78.886700000000005</c:v>
                 </c:pt>
                 <c:pt idx="143">
                   <c:v>78.33</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>81.945</c:v>
+                  <c:v>81.944999999999993</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>81.9033</c:v>
+                  <c:v>81.903300000000002</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>81.1467</c:v>
+                  <c:v>81.146699999999996</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>83.205</c:v>
+                  <c:v>83.204999999999998</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>82.2133</c:v>
+                  <c:v>82.213300000000004</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>82.5833</c:v>
+                  <c:v>82.583299999999994</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>82.4533</c:v>
+                  <c:v>82.453299999999999</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>81.9117</c:v>
+                  <c:v>81.911699999999996</c:v>
                 </c:pt>
                 <c:pt idx="152">
                   <c:v>82.72</c:v>
@@ -633,43 +635,43 @@
                   <c:v>83.06</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>84.155</c:v>
+                  <c:v>84.155000000000001</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>79.8233</c:v>
+                  <c:v>79.823300000000003</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>82.1833</c:v>
+                  <c:v>82.183300000000003</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>82.82170000000001</c:v>
+                  <c:v>82.821700000000007</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>84.0183</c:v>
+                  <c:v>84.018299999999996</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>81.3383</c:v>
+                  <c:v>81.338300000000004</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>80.4567</c:v>
+                  <c:v>80.456699999999998</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>81.4183</c:v>
+                  <c:v>81.418300000000002</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>80.9917</c:v>
+                  <c:v>80.991699999999994</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>82.0</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>81.395</c:v>
+                  <c:v>81.394999999999996</c:v>
                 </c:pt>
                 <c:pt idx="165">
                   <c:v>75.62</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>82.0983</c:v>
+                  <c:v>82.098299999999995</c:v>
                 </c:pt>
                 <c:pt idx="167">
                   <c:v>82.5167</c:v>
@@ -678,55 +680,55 @@
                   <c:v>71.09</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>76.1867</c:v>
+                  <c:v>76.186700000000002</c:v>
                 </c:pt>
                 <c:pt idx="170">
                   <c:v>81.31</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>79.0467</c:v>
+                  <c:v>79.046700000000001</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>81.465</c:v>
+                  <c:v>81.465000000000003</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>81.915</c:v>
+                  <c:v>81.915000000000006</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>80.68170000000001</c:v>
+                  <c:v>80.681700000000006</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>82.5633</c:v>
+                  <c:v>82.563299999999998</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>80.3633</c:v>
+                  <c:v>80.363299999999995</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>80.8333</c:v>
+                  <c:v>80.833299999999994</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>82.6867</c:v>
+                  <c:v>82.686700000000002</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>83.7633</c:v>
+                  <c:v>83.763300000000001</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>84.2783</c:v>
+                  <c:v>84.278300000000002</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>82.9167</c:v>
+                  <c:v>82.916700000000006</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>82.2633</c:v>
+                  <c:v>82.263300000000001</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>83.9967</c:v>
+                  <c:v>83.996700000000004</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>84.4567</c:v>
+                  <c:v>84.456699999999998</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>84.085</c:v>
+                  <c:v>84.084999999999994</c:v>
                 </c:pt>
                 <c:pt idx="186">
                   <c:v>83.625</c:v>
@@ -735,37 +737,37 @@
                   <c:v>81.94</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>82.4233</c:v>
+                  <c:v>82.423299999999998</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>84.7167</c:v>
+                  <c:v>84.716700000000003</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>84.0</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="191">
                   <c:v>84.0167</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>83.945</c:v>
+                  <c:v>83.944999999999993</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>83.7117</c:v>
+                  <c:v>83.711699999999993</c:v>
                 </c:pt>
                 <c:pt idx="194">
                   <c:v>80.8917</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>81.16500000000001</c:v>
+                  <c:v>81.165000000000006</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>83.0983</c:v>
+                  <c:v>83.098299999999995</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>84.2933</c:v>
+                  <c:v>84.293300000000002</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>82.715</c:v>
+                  <c:v>82.715000000000003</c:v>
                 </c:pt>
                 <c:pt idx="199">
                   <c:v>81.34</c:v>
@@ -774,6 +776,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3E24-4940-8DAF-D1793FDA56C0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -808,346 +815,346 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="200"/>
                 <c:pt idx="0">
-                  <c:v>10.4417</c:v>
+                  <c:v>10.441700000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.4417</c:v>
+                  <c:v>10.441700000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.4417</c:v>
+                  <c:v>10.441700000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.4417</c:v>
+                  <c:v>10.441700000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.865</c:v>
+                  <c:v>20.864999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>25.7333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28.9217</c:v>
+                  <c:v>28.921700000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27.2967</c:v>
+                  <c:v>27.296700000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>33.5483</c:v>
+                  <c:v>33.548299999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>35.6367</c:v>
+                  <c:v>35.636699999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>39.8933</c:v>
+                  <c:v>39.893300000000004</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41.7617</c:v>
+                  <c:v>41.761699999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>48.6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>46.3567</c:v>
+                  <c:v>46.356699999999996</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44.9267</c:v>
+                  <c:v>44.926699999999997</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>47.3167</c:v>
+                  <c:v>47.316699999999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>45.025</c:v>
+                  <c:v>45.024999999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>48.6183</c:v>
+                  <c:v>48.618299999999998</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>46.8433</c:v>
+                  <c:v>46.843299999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>59.3583</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>59.1533</c:v>
+                  <c:v>59.153300000000002</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>50.9217</c:v>
+                  <c:v>50.921700000000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>62.5333</c:v>
+                  <c:v>62.533299999999997</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>63.0583</c:v>
+                  <c:v>63.058300000000003</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>66.2967</c:v>
+                  <c:v>66.296700000000001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>64.01</c:v>
+                  <c:v>64.010000000000005</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>64.1133</c:v>
+                  <c:v>64.113299999999995</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>60.29</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>58.585</c:v>
+                  <c:v>58.585000000000001</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>62.5667</c:v>
+                  <c:v>62.566699999999997</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>59.4483</c:v>
+                  <c:v>59.448300000000003</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>63.7867</c:v>
+                  <c:v>63.786700000000003</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>61.9317</c:v>
+                  <c:v>61.931699999999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>61.005</c:v>
+                  <c:v>61.005000000000003</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>60.4433</c:v>
+                  <c:v>60.443300000000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>67.31</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>64.2167</c:v>
+                  <c:v>64.216700000000003</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>67.91</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>66.4683</c:v>
+                  <c:v>66.468299999999999</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>65.1</c:v>
+                  <c:v>65.099999999999994</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>64.6767</c:v>
+                  <c:v>64.676699999999997</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>68.8683</c:v>
+                  <c:v>68.868300000000005</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>63.0733</c:v>
+                  <c:v>63.073300000000003</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>63.8517</c:v>
+                  <c:v>63.851700000000001</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>72.7533</c:v>
+                  <c:v>72.753299999999996</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>73.6167</c:v>
+                  <c:v>73.616699999999994</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>66.3367</c:v>
+                  <c:v>66.336699999999993</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>70.2383</c:v>
+                  <c:v>70.238299999999995</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>66.36</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>71.2133</c:v>
+                  <c:v>71.213300000000004</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>69.99</c:v>
+                  <c:v>69.989999999999995</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>73.1533</c:v>
+                  <c:v>73.153300000000002</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>72.6767</c:v>
+                  <c:v>72.676699999999997</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>67.47</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>70.335</c:v>
+                  <c:v>70.334999999999994</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>75.5683</c:v>
+                  <c:v>75.568299999999994</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>73.2467</c:v>
+                  <c:v>73.246700000000004</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>73.265</c:v>
+                  <c:v>73.265000000000001</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>75.0217</c:v>
+                  <c:v>75.021699999999996</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>70.3267</c:v>
+                  <c:v>70.326700000000002</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>69.195</c:v>
+                  <c:v>69.194999999999993</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>70.5183</c:v>
+                  <c:v>70.518299999999996</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>64.815</c:v>
+                  <c:v>64.814999999999998</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>73.28</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>72.5517</c:v>
+                  <c:v>72.551699999999997</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>74.55670000000001</c:v>
+                  <c:v>74.556700000000006</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>71.1833</c:v>
+                  <c:v>71.183300000000003</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>77.1083</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>76.82</c:v>
+                  <c:v>76.819999999999993</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>78.655</c:v>
+                  <c:v>78.655000000000001</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>79.41</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>76.69670000000001</c:v>
+                  <c:v>76.696700000000007</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>71.1067</c:v>
+                  <c:v>71.106700000000004</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>76.1933</c:v>
+                  <c:v>76.193299999999994</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>77.295</c:v>
+                  <c:v>77.295000000000002</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>72.7383</c:v>
+                  <c:v>72.738299999999995</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>75.3117</c:v>
+                  <c:v>75.311700000000002</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>77.625</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>66.7183</c:v>
+                  <c:v>66.718299999999999</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>75.79</c:v>
+                  <c:v>75.790000000000006</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>72.28830000000001</c:v>
+                  <c:v>72.288300000000007</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>76.945</c:v>
+                  <c:v>76.944999999999993</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>75.245</c:v>
+                  <c:v>75.245000000000005</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>71.03830000000001</c:v>
+                  <c:v>71.038300000000007</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>76.6083</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>78.315</c:v>
+                  <c:v>78.314999999999998</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>78.5</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>79.2033</c:v>
+                  <c:v>79.203299999999999</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>78.585</c:v>
+                  <c:v>78.584999999999994</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>79.0467</c:v>
+                  <c:v>79.046700000000001</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>77.1217</c:v>
+                  <c:v>77.121700000000004</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>73.0467</c:v>
+                  <c:v>73.046700000000001</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>74.985</c:v>
+                  <c:v>74.984999999999999</c:v>
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>78.3583</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>74.3967</c:v>
+                  <c:v>74.396699999999996</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>79.53830000000001</c:v>
+                  <c:v>79.538300000000007</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>76.535</c:v>
+                  <c:v>76.534999999999997</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>79.395</c:v>
+                  <c:v>79.394999999999996</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>76.9733</c:v>
+                  <c:v>76.973299999999995</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>77.02500000000001</c:v>
+                  <c:v>77.025000000000006</c:v>
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>74.66</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>77.8083</c:v>
+                  <c:v>77.808300000000003</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>79.785</c:v>
+                  <c:v>79.784999999999997</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>78.82170000000001</c:v>
+                  <c:v>78.821700000000007</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>80.13330000000001</c:v>
+                  <c:v>80.133300000000006</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>80.2167</c:v>
+                  <c:v>80.216700000000003</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>76.17829999999999</c:v>
+                  <c:v>76.178299999999993</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>77.3517</c:v>
+                  <c:v>77.351699999999994</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>80.35</c:v>
+                  <c:v>80.349999999999994</c:v>
                 </c:pt>
                 <c:pt idx="109">
                   <c:v>81.55</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>78.57170000000001</c:v>
+                  <c:v>78.571700000000007</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>76.3283</c:v>
+                  <c:v>76.328299999999999</c:v>
                 </c:pt>
                 <c:pt idx="112">
                   <c:v>79.72</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>80.395</c:v>
+                  <c:v>80.394999999999996</c:v>
                 </c:pt>
                 <c:pt idx="114">
                   <c:v>76.33</c:v>
@@ -1156,121 +1163,121 @@
                   <c:v>79.6417</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>80.735</c:v>
+                  <c:v>80.734999999999999</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>79.0367</c:v>
+                  <c:v>79.036699999999996</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>77.2983</c:v>
+                  <c:v>77.298299999999998</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>73.2933</c:v>
+                  <c:v>73.293300000000002</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>77.655</c:v>
+                  <c:v>77.655000000000001</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>76.2317</c:v>
+                  <c:v>76.231700000000004</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>76.3467</c:v>
+                  <c:v>76.346699999999998</c:v>
                 </c:pt>
                 <c:pt idx="123">
                   <c:v>79.0167</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>77.5067</c:v>
+                  <c:v>77.506699999999995</c:v>
                 </c:pt>
                 <c:pt idx="125">
                   <c:v>80.1083</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>80.3117</c:v>
+                  <c:v>80.311700000000002</c:v>
                 </c:pt>
                 <c:pt idx="127">
                   <c:v>80.77</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>79.955</c:v>
+                  <c:v>79.954999999999998</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>81.465</c:v>
+                  <c:v>81.465000000000003</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>80.0067</c:v>
+                  <c:v>80.006699999999995</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>81.7033</c:v>
+                  <c:v>81.703299999999999</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>78.71</c:v>
+                  <c:v>78.709999999999994</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>80.4067</c:v>
+                  <c:v>80.406700000000001</c:v>
                 </c:pt>
                 <c:pt idx="134">
                   <c:v>81.0017</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>79.015</c:v>
+                  <c:v>79.015000000000001</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>79.1883</c:v>
+                  <c:v>79.188299999999998</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>74.78830000000001</c:v>
+                  <c:v>74.788300000000007</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>82.07170000000001</c:v>
+                  <c:v>82.071700000000007</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>81.4617</c:v>
+                  <c:v>81.461699999999993</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>81.6767</c:v>
+                  <c:v>81.676699999999997</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>81.57</c:v>
+                  <c:v>81.569999999999993</c:v>
                 </c:pt>
                 <c:pt idx="142">
                   <c:v>76.92</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>76.32</c:v>
+                  <c:v>76.319999999999993</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>78.7117</c:v>
+                  <c:v>78.711699999999993</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>80.725</c:v>
+                  <c:v>80.724999999999994</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>78.0783</c:v>
+                  <c:v>78.078299999999999</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>78.0583</c:v>
+                  <c:v>78.058300000000003</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>77.7233</c:v>
+                  <c:v>77.723299999999995</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>78.565</c:v>
+                  <c:v>78.564999999999998</c:v>
                 </c:pt>
                 <c:pt idx="150">
                   <c:v>79.4833</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>81.88330000000001</c:v>
+                  <c:v>81.883300000000006</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>80.9867</c:v>
+                  <c:v>80.986699999999999</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>79.765</c:v>
+                  <c:v>79.765000000000001</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>79.4533</c:v>
+                  <c:v>79.453299999999999</c:v>
                 </c:pt>
                 <c:pt idx="155">
                   <c:v>80.98</c:v>
@@ -1279,22 +1286,22 @@
                   <c:v>78.2483</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>81.5933</c:v>
+                  <c:v>81.593299999999999</c:v>
                 </c:pt>
                 <c:pt idx="158">
                   <c:v>80.36</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>77.82170000000001</c:v>
+                  <c:v>77.821700000000007</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>74.4583</c:v>
+                  <c:v>74.458299999999994</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>74.8083</c:v>
+                  <c:v>74.808300000000003</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>79.38500000000001</c:v>
+                  <c:v>79.385000000000005</c:v>
                 </c:pt>
                 <c:pt idx="163">
                   <c:v>80.53</c:v>
@@ -1303,114 +1310,119 @@
                   <c:v>81.7667</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>79.8033</c:v>
+                  <c:v>79.803299999999993</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>80.53830000000001</c:v>
+                  <c:v>80.538300000000007</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>81.07170000000001</c:v>
+                  <c:v>81.071700000000007</c:v>
                 </c:pt>
                 <c:pt idx="168">
                   <c:v>82.2517</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>77.1883</c:v>
+                  <c:v>77.188299999999998</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>81.2467</c:v>
+                  <c:v>81.246700000000004</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>80.51</c:v>
+                  <c:v>80.510000000000005</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>78.99</c:v>
+                  <c:v>78.989999999999995</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>77.0483</c:v>
+                  <c:v>77.048299999999998</c:v>
                 </c:pt>
                 <c:pt idx="174">
                   <c:v>77.44</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>80.295</c:v>
+                  <c:v>80.295000000000002</c:v>
                 </c:pt>
                 <c:pt idx="176">
                   <c:v>75.5167</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>79.4333</c:v>
+                  <c:v>79.433300000000003</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>78.3883</c:v>
+                  <c:v>78.388300000000001</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>77.5217</c:v>
+                  <c:v>77.521699999999996</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>76.0683</c:v>
+                  <c:v>76.068299999999994</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>76.715</c:v>
+                  <c:v>76.715000000000003</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>78.43</c:v>
+                  <c:v>78.430000000000007</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>76.1033</c:v>
+                  <c:v>76.103300000000004</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>79.1983</c:v>
+                  <c:v>79.198300000000003</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>79.9517</c:v>
+                  <c:v>79.951700000000002</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>80.2467</c:v>
+                  <c:v>80.246700000000004</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>74.88500000000001</c:v>
+                  <c:v>74.885000000000005</c:v>
                 </c:pt>
                 <c:pt idx="188">
                   <c:v>78.9983</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>75.045</c:v>
+                  <c:v>75.045000000000002</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>77.4767</c:v>
+                  <c:v>77.476699999999994</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>78.965</c:v>
+                  <c:v>78.965000000000003</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>82.1983</c:v>
+                  <c:v>82.198300000000003</c:v>
                 </c:pt>
                 <c:pt idx="193">
                   <c:v>81.84</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>82.5067</c:v>
+                  <c:v>82.506699999999995</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>82.2033</c:v>
+                  <c:v>82.203299999999999</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>78.5533</c:v>
+                  <c:v>78.553299999999993</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>78.1433</c:v>
+                  <c:v>78.143299999999996</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>80.6367</c:v>
+                  <c:v>80.636700000000005</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>79.65000000000001</c:v>
+                  <c:v>79.650000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3E24-4940-8DAF-D1793FDA56C0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1445,61 +1457,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="200"/>
                 <c:pt idx="0">
-                  <c:v>10.4417</c:v>
+                  <c:v>10.441700000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.4417</c:v>
+                  <c:v>10.441700000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.9933</c:v>
+                  <c:v>20.993300000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45.7817</c:v>
+                  <c:v>45.781700000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>73.0533</c:v>
+                  <c:v>73.053299999999993</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>84.705</c:v>
+                  <c:v>84.704999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>84.8317</c:v>
+                  <c:v>84.831699999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>85.3717</c:v>
+                  <c:v>85.371700000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>84.9683</c:v>
+                  <c:v>84.968299999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>84.2183</c:v>
+                  <c:v>84.218299999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>83.7467</c:v>
+                  <c:v>83.746700000000004</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>84.4917</c:v>
+                  <c:v>84.491699999999994</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>85.6417</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>86.3433</c:v>
+                  <c:v>86.343299999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>85.6167</c:v>
+                  <c:v>85.616699999999994</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>84.22</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>84.1933</c:v>
+                  <c:v>84.193299999999994</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>85.3367</c:v>
+                  <c:v>85.336699999999993</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>85.3667</c:v>
+                  <c:v>85.366699999999994</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>85.38</c:v>
@@ -1508,115 +1520,115 @@
                   <c:v>84.6233</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>85.725</c:v>
+                  <c:v>85.724999999999994</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>84.9383</c:v>
+                  <c:v>84.938299999999998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>85.2183</c:v>
+                  <c:v>85.218299999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>82.435</c:v>
+                  <c:v>82.435000000000002</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>85.29</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>83.7617</c:v>
+                  <c:v>83.761700000000005</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>83.49</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>84.4233</c:v>
+                  <c:v>84.423299999999998</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>86.7817</c:v>
+                  <c:v>86.781700000000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>87.485</c:v>
+                  <c:v>87.484999999999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>86.9117</c:v>
+                  <c:v>86.911699999999996</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>87.0333</c:v>
+                  <c:v>87.033299999999997</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>85.9333</c:v>
+                  <c:v>85.933300000000003</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>87.4433</c:v>
+                  <c:v>87.443299999999994</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>87.39</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>86.65170000000001</c:v>
+                  <c:v>86.651700000000005</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>86.715</c:v>
+                  <c:v>86.715000000000003</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>87.5933</c:v>
+                  <c:v>87.593299999999999</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>85.945</c:v>
+                  <c:v>85.944999999999993</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>86.8483</c:v>
+                  <c:v>86.848299999999995</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>87.7267</c:v>
+                  <c:v>87.726699999999994</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>87.1133</c:v>
+                  <c:v>87.113299999999995</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>87.23</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>88.565</c:v>
+                  <c:v>88.564999999999998</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>89.2667</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>88.07170000000001</c:v>
+                  <c:v>88.071700000000007</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>88.5417</c:v>
+                  <c:v>88.541700000000006</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>87.7367</c:v>
+                  <c:v>87.736699999999999</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>88.7183</c:v>
+                  <c:v>88.718299999999999</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>88.6117</c:v>
+                  <c:v>88.611699999999999</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>88.27670000000001</c:v>
+                  <c:v>88.276700000000005</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>89.1067</c:v>
+                  <c:v>89.106700000000004</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>89.39830000000001</c:v>
+                  <c:v>89.398300000000006</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>88.6583</c:v>
+                  <c:v>88.658299999999997</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>89.0617</c:v>
+                  <c:v>89.061700000000002</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>88.27</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>89.32170000000001</c:v>
+                  <c:v>89.321700000000007</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>88.7517</c:v>
@@ -1628,79 +1640,79 @@
                   <c:v>89.125</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>88.915</c:v>
+                  <c:v>88.915000000000006</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>88.565</c:v>
+                  <c:v>88.564999999999998</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>88.455</c:v>
+                  <c:v>88.454999999999998</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>88.4233</c:v>
+                  <c:v>88.423299999999998</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>89.2633</c:v>
+                  <c:v>89.263300000000001</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>88.045</c:v>
+                  <c:v>88.045000000000002</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>87.96</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>88.8117</c:v>
+                  <c:v>88.811700000000002</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>88.2917</c:v>
+                  <c:v>88.291700000000006</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>89.1833</c:v>
+                  <c:v>89.183300000000003</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>89.27500000000001</c:v>
+                  <c:v>89.275000000000006</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>90.05500000000001</c:v>
+                  <c:v>90.055000000000007</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>90.2233</c:v>
+                  <c:v>90.223299999999995</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>90.31</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>89.2983</c:v>
+                  <c:v>89.298299999999998</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>88.8017</c:v>
+                  <c:v>88.801699999999997</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>88.0983</c:v>
+                  <c:v>88.098299999999995</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>88.1067</c:v>
+                  <c:v>88.106700000000004</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>87.5283</c:v>
+                  <c:v>87.528300000000002</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>87.19670000000001</c:v>
+                  <c:v>87.196700000000007</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>88.6267</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>88.5633</c:v>
+                  <c:v>88.563299999999998</c:v>
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>88.96</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>89.605</c:v>
+                  <c:v>89.605000000000004</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>89.0683</c:v>
+                  <c:v>89.068299999999994</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>88.93</c:v>
@@ -1709,55 +1721,55 @@
                   <c:v>89.81</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>89.2117</c:v>
+                  <c:v>89.211699999999993</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>90.2717</c:v>
+                  <c:v>90.271699999999996</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>88.325</c:v>
+                  <c:v>88.325000000000003</c:v>
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>89.4</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>90.045</c:v>
+                  <c:v>90.045000000000002</c:v>
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>89.8917</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>89.7933</c:v>
+                  <c:v>89.793300000000002</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>89.8883</c:v>
+                  <c:v>89.888300000000001</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>89.8333</c:v>
+                  <c:v>89.833299999999994</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>89.9283</c:v>
+                  <c:v>89.928299999999993</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>89.0783</c:v>
+                  <c:v>89.078299999999999</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>89.175</c:v>
+                  <c:v>89.174999999999997</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>89.3167</c:v>
+                  <c:v>89.316699999999997</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>89.2133</c:v>
+                  <c:v>89.213300000000004</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>89.16330000000001</c:v>
+                  <c:v>89.163300000000007</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>89.3483</c:v>
+                  <c:v>89.348299999999995</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>89.435</c:v>
+                  <c:v>89.435000000000002</c:v>
                 </c:pt>
                 <c:pt idx="105">
                   <c:v>88.59</c:v>
@@ -1766,124 +1778,124 @@
                   <c:v>88.99</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>89.6117</c:v>
+                  <c:v>89.611699999999999</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>89.2467</c:v>
+                  <c:v>89.246700000000004</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>90.345</c:v>
+                  <c:v>90.344999999999999</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>88.9117</c:v>
+                  <c:v>88.911699999999996</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>88.8367</c:v>
+                  <c:v>88.836699999999993</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>89.05500000000001</c:v>
+                  <c:v>89.055000000000007</c:v>
                 </c:pt>
                 <c:pt idx="113">
                   <c:v>89.91</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>89.2933</c:v>
+                  <c:v>89.293300000000002</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>89.545</c:v>
+                  <c:v>89.545000000000002</c:v>
                 </c:pt>
                 <c:pt idx="116">
                   <c:v>89.4983</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>90.1733</c:v>
+                  <c:v>90.173299999999998</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>88.3867</c:v>
+                  <c:v>88.386700000000005</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>89.3783</c:v>
+                  <c:v>89.378299999999996</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>89.67829999999999</c:v>
+                  <c:v>89.678299999999993</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>89.4733</c:v>
+                  <c:v>89.473299999999995</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>90.195</c:v>
+                  <c:v>90.194999999999993</c:v>
                 </c:pt>
                 <c:pt idx="123">
                   <c:v>89.97</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>89.5833</c:v>
+                  <c:v>89.583299999999994</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>88.865</c:v>
+                  <c:v>88.864999999999995</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>89.4483</c:v>
+                  <c:v>89.448300000000003</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>89.295</c:v>
+                  <c:v>89.295000000000002</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>89.1917</c:v>
+                  <c:v>89.191699999999997</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>89.6533</c:v>
+                  <c:v>89.653300000000002</c:v>
                 </c:pt>
                 <c:pt idx="130">
                   <c:v>89.33</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>89.3283</c:v>
+                  <c:v>89.328299999999999</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>88.9917</c:v>
+                  <c:v>88.991699999999994</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>89.55500000000001</c:v>
+                  <c:v>89.555000000000007</c:v>
                 </c:pt>
                 <c:pt idx="134">
                   <c:v>89.55</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>89.9067</c:v>
+                  <c:v>89.906700000000001</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>89.3867</c:v>
+                  <c:v>89.386700000000005</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>88.7717</c:v>
+                  <c:v>88.771699999999996</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>89.3617</c:v>
+                  <c:v>89.361699999999999</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>89.9883</c:v>
+                  <c:v>89.988299999999995</c:v>
                 </c:pt>
                 <c:pt idx="140">
                   <c:v>89.5</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>89.6317</c:v>
+                  <c:v>89.631699999999995</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>90.2233</c:v>
+                  <c:v>90.223299999999995</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>90.6533</c:v>
+                  <c:v>90.653300000000002</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>90.2283</c:v>
+                  <c:v>90.228300000000004</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>89.9367</c:v>
+                  <c:v>89.936700000000002</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>90.2117</c:v>
+                  <c:v>90.211699999999993</c:v>
                 </c:pt>
                 <c:pt idx="147">
                   <c:v>89.625</c:v>
@@ -1892,103 +1904,103 @@
                   <c:v>89.6417</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>90.2717</c:v>
+                  <c:v>90.271699999999996</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>89.9883</c:v>
+                  <c:v>89.988299999999995</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>90.69670000000001</c:v>
+                  <c:v>90.696700000000007</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>90.17829999999999</c:v>
+                  <c:v>90.178299999999993</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>90.4367</c:v>
+                  <c:v>90.436700000000002</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>90.4383</c:v>
+                  <c:v>90.438299999999998</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>90.2833</c:v>
+                  <c:v>90.283299999999997</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>90.3483</c:v>
+                  <c:v>90.348299999999995</c:v>
                 </c:pt>
                 <c:pt idx="157">
                   <c:v>89.16</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>89.0683</c:v>
+                  <c:v>89.068299999999994</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>90.0633</c:v>
+                  <c:v>90.063299999999998</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>90.3333</c:v>
+                  <c:v>90.333299999999994</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>89.9867</c:v>
+                  <c:v>89.986699999999999</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>90.6983</c:v>
+                  <c:v>90.698300000000003</c:v>
                 </c:pt>
                 <c:pt idx="163">
                   <c:v>90.0017</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>90.1883</c:v>
+                  <c:v>90.188299999999998</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>90.3317</c:v>
+                  <c:v>90.331699999999998</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>90.9017</c:v>
+                  <c:v>90.901700000000005</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>90.8717</c:v>
+                  <c:v>90.871700000000004</c:v>
                 </c:pt>
                 <c:pt idx="168">
                   <c:v>90.62</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>90.5983</c:v>
+                  <c:v>90.598299999999995</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>91.095</c:v>
+                  <c:v>91.094999999999999</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>90.2867</c:v>
+                  <c:v>90.286699999999996</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>90.7317</c:v>
+                  <c:v>90.731700000000004</c:v>
                 </c:pt>
                 <c:pt idx="173">
                   <c:v>89.89</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>90.13500000000001</c:v>
+                  <c:v>90.135000000000005</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>89.9017</c:v>
+                  <c:v>89.901700000000005</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>90.565</c:v>
+                  <c:v>90.564999999999998</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>90.0467</c:v>
+                  <c:v>90.046700000000001</c:v>
                 </c:pt>
                 <c:pt idx="178">
                   <c:v>89.3733</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>89.1533</c:v>
+                  <c:v>89.153300000000002</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>89.5667</c:v>
+                  <c:v>89.566699999999997</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>89.2967</c:v>
+                  <c:v>89.296700000000001</c:v>
                 </c:pt>
                 <c:pt idx="182">
                   <c:v>89.2517</c:v>
@@ -1997,34 +2009,34 @@
                   <c:v>89.8733</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>89.6017</c:v>
+                  <c:v>89.601699999999994</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>90.03830000000001</c:v>
+                  <c:v>90.038300000000007</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>90.4267</c:v>
+                  <c:v>90.426699999999997</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>89.4817</c:v>
+                  <c:v>89.481700000000004</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>89.88330000000001</c:v>
+                  <c:v>89.883300000000006</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>89.8167</c:v>
+                  <c:v>89.816699999999997</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>89.88330000000001</c:v>
+                  <c:v>89.883300000000006</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>90.2433</c:v>
+                  <c:v>90.243300000000005</c:v>
                 </c:pt>
                 <c:pt idx="192">
                   <c:v>90.17</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>90.1017</c:v>
+                  <c:v>90.101699999999994</c:v>
                 </c:pt>
                 <c:pt idx="194">
                   <c:v>90.64</c:v>
@@ -2036,18 +2048,1301 @@
                   <c:v>90.9983</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>90.6733</c:v>
+                  <c:v>90.673299999999998</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>90.7467</c:v>
+                  <c:v>90.746700000000004</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>90.55500000000001</c:v>
+                  <c:v>90.555000000000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3E24-4940-8DAF-D1793FDA56C0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$201</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="200"/>
+                <c:pt idx="0">
+                  <c:v>11.35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.35</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.35</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.35</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.35</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.35</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11.35</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11.35</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11.35</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11.35</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.49</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15.12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17.59</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>18.73</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>19.25</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20.07</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20.329999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>20.59</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>21.12</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>21.59</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>21.81</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>22.54</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>23.88</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>24.57</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>25.31</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>26.57</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>27.66</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>27.87</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>28.47</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>29.25</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>29.65</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>30.28</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>30.85</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>31.35</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>32.06</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>33.22</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>33.64</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>34.22</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>34.44</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>35.14</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>35.61</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>36.15</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>36.380000000000003</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>36.58</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>37.229999999999997</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>37.53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>37.83</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>38.82</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>38.89</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>39.14</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>39.450000000000003</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>39.92</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>40.44</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>40.840000000000003</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>41.03</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>41.09</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>41.46</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>41.54</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>41.5</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>41.58</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>41.77</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>41.9</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>41.94</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>41.75</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>41.94</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>41.97</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>42.01</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>42.01</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>42.21</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>42.22</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>42.29</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>42.4</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>42.58</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>42.57</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>42.85</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>42.94</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>42.92</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>42.97</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>43.03</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>43.25</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>43.26</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>43.28</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>43.33</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>43.32</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>43.41</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>43.57</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>43.53</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>43.64</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>43.68</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>43.77</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>43.79</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>43.86</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>43.87</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>43.96</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>44.04</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>44.47</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>44.83</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>44.87</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>44.9</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>44.93</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>44.99</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>44.99</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>44.97</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>44.98</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>45.11</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>45.08</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>45.18</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>45.19</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>45.17</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>45.19</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>45.19</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>45.25</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>45.45</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>45.42</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>45.63</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>45.66</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>45.66</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>45.68</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>45.7</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>45.74</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>45.74</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>45.74</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>45.7</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>45.81</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>45.78</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>45.67</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>45.7</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>45.7</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>45.69</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>45.69</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>45.68</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>45.66</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>45.68</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>45.64</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>45.63</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>45.62</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>45.63</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>45.67</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>45.78</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>45.82</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>45.84</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>45.84</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>45.87</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>45.72</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>45.73</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>45.73</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>45.82</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>45.82</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>45.92</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>45.92</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>45.94</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>45.95</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>45.96</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>45.96</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>45.99</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>45.99</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>46.02</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>46.02</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>46.07</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>46.28</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>46.29</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>46.35</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>46.34</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>46.32</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>46.32</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>46.3</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>46.35</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>46.37</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>46.38</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>46.38</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>46.49</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>46.52</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>46.52</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>46.55</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>46.56</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>46.52</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>46.57</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>46.58</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>46.58</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>46.59</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>46.56</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>46.73</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>46.71</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>46.71</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>46.71</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>46.69</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>46.68</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>46.74</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>46.73</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>46.73</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3E24-4940-8DAF-D1793FDA56C0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$201</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="200"/>
+                <c:pt idx="0">
+                  <c:v>11.35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.35</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.35</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.35</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.35</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.35</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11.35</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11.35</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11.35</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11.35</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.35</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11.35</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11.35</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>11.35</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11.35</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11.35</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11.35</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11.35</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>11.35</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>11.35</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>11.35</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11.35</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11.35</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11.35</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>11.35</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>11.35</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>11.35</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>11.35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>11.35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>11.35</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>13.14</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>14.45</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>15.04</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>14.64</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>13.92</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>13.37</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>13.8</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>14.29</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>14.74</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>14.88</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>15.09</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>15.45</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>15.74</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>16.010000000000002</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>16.25</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>16.72</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>17.03</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>17.329999999999998</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>17.57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>17.86</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>18.23</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>18.53</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>18.86</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>19.309999999999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>19.75</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>20.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>20.3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>20.67</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>20.88</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>21.11</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>21.13</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>21.3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>21.44</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>21.49</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>21.65</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>21.74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>21.76</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>21.9</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>22.17</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>22.32</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>22.39</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>22.52</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>22.63</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>22.59</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>22.49</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>22.4</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>22.62</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>22.72</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>22.69</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>22.85</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>22.92</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>22.85</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>22.89</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>22.97</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>23.09</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>23.1</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>23.1</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>23.14</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>23.23</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>23.32</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>23.41</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>23.42</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>23.38</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>23.47</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>23.42</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>23.46</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>23.56</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>23.51</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>23.56</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>23.68</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>23.7</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>23.8</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>23.88</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>23.87</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>23.93</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>23.97</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>24.05</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>24.18</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>24.19</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>24.26</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>24.22</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>24.23</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>24.35</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>24.31</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>24.38</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>24.46</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>24.48</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>24.49</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>24.49</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>24.43</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>24.46</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>24.48</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>24.46</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>24.53</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>24.57</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>24.58</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>24.54</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>24.52</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>24.53</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>24.6</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>24.68</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>24.68</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>24.69</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>24.67</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>24.78</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>24.84</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>24.85</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>24.86</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>24.91</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>24.92</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>24.97</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>25.02</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>25.04</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>25.07</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>25.15</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>25.18</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>25.2</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>25.23</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>25.27</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>25.27</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>25.27</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>25.28</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>25.28</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>25.33</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>25.41</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>25.43</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>25.46</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>25.46</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>25.43</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>25.45</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>25.46</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>25.44</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>25.46</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>25.51</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>25.48</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>25.48</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>25.52</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>25.52</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>25.57</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>25.63</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>25.64</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>25.65</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>25.64</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>25.61</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>25.59</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>25.65</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>25.62</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>25.66</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>25.65</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>25.65</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>25.69</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>25.71</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>25.71</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>25.72</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>25.74</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EFB2-BD48-8535-EF88F9E40162}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2133,6 +3428,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2177,7 +3473,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2804,20 +4099,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>810758</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>200536</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>11457</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>14032</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>444056</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>470699</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>26644</xdr:rowOff>
+      <xdr:rowOff>44406</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3097,16 +4398,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C203"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E203"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="143" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3117,7 +4418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>36.1233</v>
       </c>
@@ -3127,8 +4428,14 @@
       <c r="C2">
         <v>10.441700000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2">
+        <v>11.35</v>
+      </c>
+      <c r="E2">
+        <v>11.35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>59.265000000000001</v>
       </c>
@@ -3138,8 +4445,14 @@
       <c r="C3">
         <v>10.441700000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <v>11.35</v>
+      </c>
+      <c r="E3">
+        <v>11.35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>48.9833</v>
       </c>
@@ -3149,8 +4462,14 @@
       <c r="C4">
         <v>20.993300000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <v>11.35</v>
+      </c>
+      <c r="E4">
+        <v>11.35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>58.2117</v>
       </c>
@@ -3160,8 +4479,14 @@
       <c r="C5">
         <v>45.781700000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <v>11.35</v>
+      </c>
+      <c r="E5">
+        <v>11.35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>62.265000000000001</v>
       </c>
@@ -3171,8 +4496,14 @@
       <c r="C6">
         <v>73.053299999999993</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <v>11.35</v>
+      </c>
+      <c r="E6">
+        <v>11.35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>54.835000000000001</v>
       </c>
@@ -3182,8 +4513,14 @@
       <c r="C7">
         <v>84.704999999999998</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <v>11.35</v>
+      </c>
+      <c r="E7">
+        <v>11.35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>63.9833</v>
       </c>
@@ -3193,8 +4530,14 @@
       <c r="C8">
         <v>84.831699999999998</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <v>11.35</v>
+      </c>
+      <c r="E8">
+        <v>11.35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>64.068299999999994</v>
       </c>
@@ -3204,8 +4547,14 @@
       <c r="C9">
         <v>85.371700000000004</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9">
+        <v>11.35</v>
+      </c>
+      <c r="E9">
+        <v>11.35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>68.071700000000007</v>
       </c>
@@ -3215,8 +4564,14 @@
       <c r="C10">
         <v>84.968299999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10">
+        <v>11.35</v>
+      </c>
+      <c r="E10">
+        <v>11.35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>69.988299999999995</v>
       </c>
@@ -3226,8 +4581,14 @@
       <c r="C11">
         <v>84.218299999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <v>11.35</v>
+      </c>
+      <c r="E11">
+        <v>11.35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>67.703299999999999</v>
       </c>
@@ -3237,8 +4598,14 @@
       <c r="C12">
         <v>83.746700000000004</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12">
+        <v>11.35</v>
+      </c>
+      <c r="E12">
+        <v>11.35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>67.3917</v>
       </c>
@@ -3248,8 +4615,14 @@
       <c r="C13">
         <v>84.491699999999994</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <v>11.35</v>
+      </c>
+      <c r="E13">
+        <v>11.35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>68.25</v>
       </c>
@@ -3259,8 +4632,14 @@
       <c r="C14">
         <v>85.6417</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D14">
+        <v>11.35</v>
+      </c>
+      <c r="E14">
+        <v>11.35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>69.644999999999996</v>
       </c>
@@ -3270,8 +4649,14 @@
       <c r="C15">
         <v>86.343299999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D15">
+        <v>11.35</v>
+      </c>
+      <c r="E15">
+        <v>11.35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>68.478300000000004</v>
       </c>
@@ -3281,8 +4666,14 @@
       <c r="C16">
         <v>85.616699999999994</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16">
+        <v>11.35</v>
+      </c>
+      <c r="E16">
+        <v>11.35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>63.07</v>
       </c>
@@ -3292,8 +4683,14 @@
       <c r="C17">
         <v>84.22</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17">
+        <v>11.35</v>
+      </c>
+      <c r="E17">
+        <v>11.35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>71.528300000000002</v>
       </c>
@@ -3303,8 +4700,14 @@
       <c r="C18">
         <v>84.193299999999994</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18">
+        <v>11.35</v>
+      </c>
+      <c r="E18">
+        <v>11.35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>70.361699999999999</v>
       </c>
@@ -3314,8 +4717,14 @@
       <c r="C19">
         <v>85.336699999999993</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19">
+        <v>11.49</v>
+      </c>
+      <c r="E19">
+        <v>11.35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>69.174999999999997</v>
       </c>
@@ -3325,8 +4734,14 @@
       <c r="C20">
         <v>85.366699999999994</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20">
+        <v>15.12</v>
+      </c>
+      <c r="E20">
+        <v>11.35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>69.066699999999997</v>
       </c>
@@ -3336,8 +4751,14 @@
       <c r="C21">
         <v>85.38</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D21">
+        <v>17.59</v>
+      </c>
+      <c r="E21">
+        <v>11.35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>67.541700000000006</v>
       </c>
@@ -3347,8 +4768,14 @@
       <c r="C22">
         <v>84.6233</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22">
+        <v>18.73</v>
+      </c>
+      <c r="E22">
+        <v>11.35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>70.885000000000005</v>
       </c>
@@ -3358,8 +4785,14 @@
       <c r="C23">
         <v>85.724999999999994</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D23">
+        <v>19.25</v>
+      </c>
+      <c r="E23">
+        <v>11.35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>73.906700000000001</v>
       </c>
@@ -3369,8 +4802,14 @@
       <c r="C24">
         <v>84.938299999999998</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D24">
+        <v>20.07</v>
+      </c>
+      <c r="E24">
+        <v>11.35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>72.386700000000005</v>
       </c>
@@ -3380,8 +4819,14 @@
       <c r="C25">
         <v>85.218299999999999</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D25">
+        <v>20.329999999999998</v>
+      </c>
+      <c r="E25">
+        <v>11.35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>74.346699999999998</v>
       </c>
@@ -3391,8 +4836,14 @@
       <c r="C26">
         <v>82.435000000000002</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D26">
+        <v>20.59</v>
+      </c>
+      <c r="E26">
+        <v>11.35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>71.321700000000007</v>
       </c>
@@ -3402,8 +4853,14 @@
       <c r="C27">
         <v>85.29</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D27">
+        <v>21.12</v>
+      </c>
+      <c r="E27">
+        <v>11.35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>69.555000000000007</v>
       </c>
@@ -3413,8 +4870,14 @@
       <c r="C28">
         <v>83.761700000000005</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D28">
+        <v>21.59</v>
+      </c>
+      <c r="E28">
+        <v>11.35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>74.484999999999999</v>
       </c>
@@ -3424,8 +4887,14 @@
       <c r="C29">
         <v>83.49</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D29">
+        <v>21.81</v>
+      </c>
+      <c r="E29">
+        <v>11.35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>75.540000000000006</v>
       </c>
@@ -3435,8 +4904,14 @@
       <c r="C30">
         <v>84.423299999999998</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D30">
+        <v>22.54</v>
+      </c>
+      <c r="E30">
+        <v>11.35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>69.495000000000005</v>
       </c>
@@ -3446,8 +4921,14 @@
       <c r="C31">
         <v>86.781700000000001</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D31">
+        <v>23</v>
+      </c>
+      <c r="E31">
+        <v>11.35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>76.533299999999997</v>
       </c>
@@ -3457,8 +4938,14 @@
       <c r="C32">
         <v>87.484999999999999</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D32">
+        <v>23.88</v>
+      </c>
+      <c r="E32">
+        <v>11.35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>74.739999999999995</v>
       </c>
@@ -3468,8 +4955,14 @@
       <c r="C33">
         <v>86.911699999999996</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D33">
+        <v>24.57</v>
+      </c>
+      <c r="E33">
+        <v>11.35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>69.3917</v>
       </c>
@@ -3479,8 +4972,14 @@
       <c r="C34">
         <v>87.033299999999997</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D34">
+        <v>25.31</v>
+      </c>
+      <c r="E34">
+        <v>11.35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>75.711699999999993</v>
       </c>
@@ -3490,8 +4989,14 @@
       <c r="C35">
         <v>85.933300000000003</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D35">
+        <v>26.57</v>
+      </c>
+      <c r="E35">
+        <v>11.35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>70.84</v>
       </c>
@@ -3501,8 +5006,14 @@
       <c r="C36">
         <v>87.443299999999994</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D36">
+        <v>27.66</v>
+      </c>
+      <c r="E36">
+        <v>11.35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>71.581699999999998</v>
       </c>
@@ -3512,8 +5023,14 @@
       <c r="C37">
         <v>87.39</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D37">
+        <v>27.87</v>
+      </c>
+      <c r="E37">
+        <v>11.35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>70.776700000000005</v>
       </c>
@@ -3523,8 +5040,14 @@
       <c r="C38">
         <v>86.651700000000005</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D38">
+        <v>28.47</v>
+      </c>
+      <c r="E38">
+        <v>11.35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>77.263300000000001</v>
       </c>
@@ -3534,8 +5057,14 @@
       <c r="C39">
         <v>86.715000000000003</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D39">
+        <v>29.25</v>
+      </c>
+      <c r="E39">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>74.601699999999994</v>
       </c>
@@ -3545,8 +5074,14 @@
       <c r="C40">
         <v>87.593299999999999</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D40">
+        <v>29.65</v>
+      </c>
+      <c r="E40">
+        <v>13.14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>72.174999999999997</v>
       </c>
@@ -3556,8 +5091,14 @@
       <c r="C41">
         <v>85.944999999999993</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D41">
+        <v>30.28</v>
+      </c>
+      <c r="E41">
+        <v>14.45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>76.076700000000002</v>
       </c>
@@ -3567,8 +5108,14 @@
       <c r="C42">
         <v>86.848299999999995</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D42">
+        <v>30.85</v>
+      </c>
+      <c r="E42">
+        <v>15.04</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>72.125</v>
       </c>
@@ -3578,8 +5125,14 @@
       <c r="C43">
         <v>87.726699999999994</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D43">
+        <v>31.35</v>
+      </c>
+      <c r="E43">
+        <v>14.64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>76.23</v>
       </c>
@@ -3589,8 +5142,14 @@
       <c r="C44">
         <v>87.113299999999995</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D44">
+        <v>32.06</v>
+      </c>
+      <c r="E44">
+        <v>13.92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>79.163300000000007</v>
       </c>
@@ -3600,8 +5159,14 @@
       <c r="C45">
         <v>87.23</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D45">
+        <v>33.22</v>
+      </c>
+      <c r="E45">
+        <v>13.37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>79.92</v>
       </c>
@@ -3611,8 +5176,14 @@
       <c r="C46">
         <v>88.564999999999998</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D46">
+        <v>33.64</v>
+      </c>
+      <c r="E46">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>79.665000000000006</v>
       </c>
@@ -3622,8 +5193,14 @@
       <c r="C47">
         <v>89.2667</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D47">
+        <v>34.22</v>
+      </c>
+      <c r="E47">
+        <v>14.29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>79.010000000000005</v>
       </c>
@@ -3633,8 +5210,14 @@
       <c r="C48">
         <v>88.071700000000007</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D48">
+        <v>34.44</v>
+      </c>
+      <c r="E48">
+        <v>14.74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>74.763300000000001</v>
       </c>
@@ -3644,8 +5227,14 @@
       <c r="C49">
         <v>88.541700000000006</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D49">
+        <v>35.14</v>
+      </c>
+      <c r="E49">
+        <v>14.88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>73.083299999999994</v>
       </c>
@@ -3655,8 +5244,14 @@
       <c r="C50">
         <v>87.736699999999999</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D50">
+        <v>35.61</v>
+      </c>
+      <c r="E50">
+        <v>15.09</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>78.765000000000001</v>
       </c>
@@ -3666,8 +5261,14 @@
       <c r="C51">
         <v>88.718299999999999</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D51">
+        <v>36.15</v>
+      </c>
+      <c r="E51">
+        <v>15.45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>78.77</v>
       </c>
@@ -3677,8 +5278,14 @@
       <c r="C52">
         <v>88.611699999999999</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D52">
+        <v>36.380000000000003</v>
+      </c>
+      <c r="E52">
+        <v>15.74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>76.601699999999994</v>
       </c>
@@ -3688,8 +5295,14 @@
       <c r="C53">
         <v>88.276700000000005</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D53">
+        <v>36.58</v>
+      </c>
+      <c r="E53">
+        <v>16.010000000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>72.068299999999994</v>
       </c>
@@ -3699,8 +5312,14 @@
       <c r="C54">
         <v>89.106700000000004</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D54">
+        <v>37.229999999999997</v>
+      </c>
+      <c r="E54">
+        <v>16.25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>78.871700000000004</v>
       </c>
@@ -3710,8 +5329,14 @@
       <c r="C55">
         <v>89.398300000000006</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D55">
+        <v>37.53</v>
+      </c>
+      <c r="E55">
+        <v>16.72</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>77.043300000000002</v>
       </c>
@@ -3721,8 +5346,14 @@
       <c r="C56">
         <v>88.658299999999997</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D56">
+        <v>37.83</v>
+      </c>
+      <c r="E56">
+        <v>17.03</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>78.968299999999999</v>
       </c>
@@ -3732,8 +5363,14 @@
       <c r="C57">
         <v>89.061700000000002</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D57">
+        <v>38.82</v>
+      </c>
+      <c r="E57">
+        <v>17.329999999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>78.27</v>
       </c>
@@ -3743,8 +5380,14 @@
       <c r="C58">
         <v>88.27</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D58">
+        <v>38.89</v>
+      </c>
+      <c r="E58">
+        <v>17.57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>79.564999999999998</v>
       </c>
@@ -3754,8 +5397,14 @@
       <c r="C59">
         <v>89.321700000000007</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D59">
+        <v>39.14</v>
+      </c>
+      <c r="E59">
+        <v>17.86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>77.09</v>
       </c>
@@ -3765,8 +5414,14 @@
       <c r="C60">
         <v>88.7517</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D60">
+        <v>39.450000000000003</v>
+      </c>
+      <c r="E60">
+        <v>18.23</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>78.701700000000002</v>
       </c>
@@ -3776,8 +5431,14 @@
       <c r="C61">
         <v>88.9</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D61">
+        <v>39.92</v>
+      </c>
+      <c r="E61">
+        <v>18.53</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>77.150000000000006</v>
       </c>
@@ -3787,8 +5448,14 @@
       <c r="C62">
         <v>89.125</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D62">
+        <v>40.44</v>
+      </c>
+      <c r="E62">
+        <v>18.86</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>76.728300000000004</v>
       </c>
@@ -3798,8 +5465,14 @@
       <c r="C63">
         <v>88.915000000000006</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D63">
+        <v>40.840000000000003</v>
+      </c>
+      <c r="E63">
+        <v>19.309999999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>77.438299999999998</v>
       </c>
@@ -3809,8 +5482,14 @@
       <c r="C64">
         <v>88.564999999999998</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D64">
+        <v>41.03</v>
+      </c>
+      <c r="E64">
+        <v>19.75</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>76.006699999999995</v>
       </c>
@@ -3820,8 +5499,14 @@
       <c r="C65">
         <v>88.454999999999998</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D65">
+        <v>41.09</v>
+      </c>
+      <c r="E65">
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>78.1233</v>
       </c>
@@ -3831,8 +5516,14 @@
       <c r="C66">
         <v>88.423299999999998</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D66">
+        <v>41.46</v>
+      </c>
+      <c r="E66">
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>80.823300000000003</v>
       </c>
@@ -3842,8 +5533,14 @@
       <c r="C67">
         <v>89.263300000000001</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D67">
+        <v>41.54</v>
+      </c>
+      <c r="E67">
+        <v>20.67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>77.213300000000004</v>
       </c>
@@ -3853,8 +5550,14 @@
       <c r="C68">
         <v>88.045000000000002</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D68">
+        <v>41.5</v>
+      </c>
+      <c r="E68">
+        <v>20.88</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>77.053299999999993</v>
       </c>
@@ -3864,8 +5567,14 @@
       <c r="C69">
         <v>87.96</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D69">
+        <v>41.58</v>
+      </c>
+      <c r="E69">
+        <v>21.11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>79.564999999999998</v>
       </c>
@@ -3875,8 +5584,14 @@
       <c r="C70">
         <v>88.811700000000002</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D70">
+        <v>41.77</v>
+      </c>
+      <c r="E70">
+        <v>21.13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>78.661699999999996</v>
       </c>
@@ -3886,8 +5601,14 @@
       <c r="C71">
         <v>88.291700000000006</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D71">
+        <v>41.9</v>
+      </c>
+      <c r="E71">
+        <v>21.3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>80.430000000000007</v>
       </c>
@@ -3897,8 +5618,14 @@
       <c r="C72">
         <v>89.183300000000003</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D72">
+        <v>41.94</v>
+      </c>
+      <c r="E72">
+        <v>21.44</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>78.206699999999998</v>
       </c>
@@ -3908,8 +5635,14 @@
       <c r="C73">
         <v>89.275000000000006</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D73">
+        <v>41.75</v>
+      </c>
+      <c r="E73">
+        <v>21.49</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>79.314999999999998</v>
       </c>
@@ -3919,8 +5652,14 @@
       <c r="C74">
         <v>90.055000000000007</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D74">
+        <v>41.94</v>
+      </c>
+      <c r="E74">
+        <v>21.65</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>77.6083</v>
       </c>
@@ -3930,8 +5669,14 @@
       <c r="C75">
         <v>90.223299999999995</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D75">
+        <v>41.97</v>
+      </c>
+      <c r="E75">
+        <v>21.74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>78.9833</v>
       </c>
@@ -3941,8 +5686,14 @@
       <c r="C76">
         <v>90.31</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D76">
+        <v>42.01</v>
+      </c>
+      <c r="E76">
+        <v>21.76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>77.401700000000005</v>
       </c>
@@ -3952,8 +5703,14 @@
       <c r="C77">
         <v>89.298299999999998</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D77">
+        <v>42.01</v>
+      </c>
+      <c r="E77">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>79.901700000000005</v>
       </c>
@@ -3963,8 +5720,14 @@
       <c r="C78">
         <v>88.801699999999997</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D78">
+        <v>42.21</v>
+      </c>
+      <c r="E78">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78.825000000000003</v>
       </c>
@@ -3974,8 +5737,14 @@
       <c r="C79">
         <v>88.098299999999995</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D79">
+        <v>42.22</v>
+      </c>
+      <c r="E79">
+        <v>22.17</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>81.5167</v>
       </c>
@@ -3985,8 +5754,14 @@
       <c r="C80">
         <v>88.106700000000004</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D80">
+        <v>42.29</v>
+      </c>
+      <c r="E80">
+        <v>22.32</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80.783299999999997</v>
       </c>
@@ -3996,8 +5771,14 @@
       <c r="C81">
         <v>87.528300000000002</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D81">
+        <v>42.4</v>
+      </c>
+      <c r="E81">
+        <v>22.39</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>78.988299999999995</v>
       </c>
@@ -4007,8 +5788,14 @@
       <c r="C82">
         <v>87.196700000000007</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D82">
+        <v>42.58</v>
+      </c>
+      <c r="E82">
+        <v>22.52</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>81.798299999999998</v>
       </c>
@@ -4018,8 +5805,14 @@
       <c r="C83">
         <v>88.6267</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D83">
+        <v>42.57</v>
+      </c>
+      <c r="E83">
+        <v>22.63</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>81.555000000000007</v>
       </c>
@@ -4029,8 +5822,14 @@
       <c r="C84">
         <v>88.563299999999998</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D84">
+        <v>42.85</v>
+      </c>
+      <c r="E84">
+        <v>22.59</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>81.418300000000002</v>
       </c>
@@ -4040,8 +5839,14 @@
       <c r="C85">
         <v>88.96</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D85">
+        <v>42.94</v>
+      </c>
+      <c r="E85">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>83.096699999999998</v>
       </c>
@@ -4051,8 +5856,14 @@
       <c r="C86">
         <v>89.605000000000004</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D86">
+        <v>42.92</v>
+      </c>
+      <c r="E86">
+        <v>22.49</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>82.243300000000005</v>
       </c>
@@ -4062,8 +5873,14 @@
       <c r="C87">
         <v>89.068299999999994</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D87">
+        <v>42.97</v>
+      </c>
+      <c r="E87">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>81.901700000000005</v>
       </c>
@@ -4073,8 +5890,14 @@
       <c r="C88">
         <v>88.93</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D88">
+        <v>43.03</v>
+      </c>
+      <c r="E88">
+        <v>22.62</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>80.818299999999994</v>
       </c>
@@ -4084,8 +5907,14 @@
       <c r="C89">
         <v>89.81</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D89">
+        <v>43.25</v>
+      </c>
+      <c r="E89">
+        <v>22.72</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>82.231700000000004</v>
       </c>
@@ -4095,8 +5924,14 @@
       <c r="C90">
         <v>89.211699999999993</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D90">
+        <v>43.26</v>
+      </c>
+      <c r="E90">
+        <v>22.69</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>78.825000000000003</v>
       </c>
@@ -4106,8 +5941,14 @@
       <c r="C91">
         <v>90.271699999999996</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D91">
+        <v>43.28</v>
+      </c>
+      <c r="E91">
+        <v>22.85</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>77.578299999999999</v>
       </c>
@@ -4117,8 +5958,14 @@
       <c r="C92">
         <v>88.325000000000003</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D92">
+        <v>43.33</v>
+      </c>
+      <c r="E92">
+        <v>22.92</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>80.453299999999999</v>
       </c>
@@ -4128,8 +5975,14 @@
       <c r="C93">
         <v>89.4</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D93">
+        <v>43.32</v>
+      </c>
+      <c r="E93">
+        <v>22.85</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>76.703299999999999</v>
       </c>
@@ -4139,8 +5992,14 @@
       <c r="C94">
         <v>90.045000000000002</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D94">
+        <v>43.41</v>
+      </c>
+      <c r="E94">
+        <v>22.89</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>70.6417</v>
       </c>
@@ -4150,8 +6009,14 @@
       <c r="C95">
         <v>89.8917</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D95">
+        <v>43.57</v>
+      </c>
+      <c r="E95">
+        <v>22.97</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>77.526700000000005</v>
       </c>
@@ -4161,8 +6026,14 @@
       <c r="C96">
         <v>89.793300000000002</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D96">
+        <v>43.53</v>
+      </c>
+      <c r="E96">
+        <v>23.09</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>80.69</v>
       </c>
@@ -4172,8 +6043,14 @@
       <c r="C97">
         <v>89.888300000000001</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D97">
+        <v>43.64</v>
+      </c>
+      <c r="E97">
+        <v>23.1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>82.155000000000001</v>
       </c>
@@ -4183,8 +6060,14 @@
       <c r="C98">
         <v>89.833299999999994</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D98">
+        <v>43.68</v>
+      </c>
+      <c r="E98">
+        <v>23.1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>76.513300000000001</v>
       </c>
@@ -4194,8 +6077,14 @@
       <c r="C99">
         <v>89.928299999999993</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D99">
+        <v>43.77</v>
+      </c>
+      <c r="E99">
+        <v>23.14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>78.663300000000007</v>
       </c>
@@ -4205,8 +6094,14 @@
       <c r="C100">
         <v>89.078299999999999</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D100">
+        <v>43.79</v>
+      </c>
+      <c r="E100">
+        <v>23.23</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>80.978300000000004</v>
       </c>
@@ -4216,8 +6111,14 @@
       <c r="C101">
         <v>89.174999999999997</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D101">
+        <v>43.86</v>
+      </c>
+      <c r="E101">
+        <v>23.32</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>80.09</v>
       </c>
@@ -4227,8 +6128,14 @@
       <c r="C102">
         <v>89.316699999999997</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D102">
+        <v>43.87</v>
+      </c>
+      <c r="E102">
+        <v>23.41</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>82.838300000000004</v>
       </c>
@@ -4238,8 +6145,14 @@
       <c r="C103">
         <v>89.213300000000004</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D103">
+        <v>43.96</v>
+      </c>
+      <c r="E103">
+        <v>23.42</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>82.2517</v>
       </c>
@@ -4249,8 +6162,14 @@
       <c r="C104">
         <v>89.163300000000007</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D104">
+        <v>44.04</v>
+      </c>
+      <c r="E104">
+        <v>23.38</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>81.844999999999999</v>
       </c>
@@ -4260,8 +6179,14 @@
       <c r="C105">
         <v>89.348299999999995</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D105">
+        <v>44.47</v>
+      </c>
+      <c r="E105">
+        <v>23.47</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>82.393299999999996</v>
       </c>
@@ -4271,8 +6196,14 @@
       <c r="C106">
         <v>89.435000000000002</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D106">
+        <v>44.83</v>
+      </c>
+      <c r="E106">
+        <v>23.42</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>82.536699999999996</v>
       </c>
@@ -4282,8 +6213,14 @@
       <c r="C107">
         <v>88.59</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D107">
+        <v>44.87</v>
+      </c>
+      <c r="E107">
+        <v>23.46</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>82.146699999999996</v>
       </c>
@@ -4293,8 +6230,14 @@
       <c r="C108">
         <v>88.99</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D108">
+        <v>44.9</v>
+      </c>
+      <c r="E108">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>81.883300000000006</v>
       </c>
@@ -4304,8 +6247,14 @@
       <c r="C109">
         <v>89.611699999999999</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D109">
+        <v>44.93</v>
+      </c>
+      <c r="E109">
+        <v>23.56</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>80.053299999999993</v>
       </c>
@@ -4315,8 +6264,14 @@
       <c r="C110">
         <v>89.246700000000004</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D110">
+        <v>44.99</v>
+      </c>
+      <c r="E110">
+        <v>23.51</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>81.36</v>
       </c>
@@ -4326,8 +6281,14 @@
       <c r="C111">
         <v>90.344999999999999</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D111">
+        <v>44.99</v>
+      </c>
+      <c r="E111">
+        <v>23.56</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>80.336699999999993</v>
       </c>
@@ -4337,8 +6298,14 @@
       <c r="C112">
         <v>88.911699999999996</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D112">
+        <v>44.97</v>
+      </c>
+      <c r="E112">
+        <v>23.68</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>77.691699999999997</v>
       </c>
@@ -4348,8 +6315,14 @@
       <c r="C113">
         <v>88.836699999999993</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D113">
+        <v>44.98</v>
+      </c>
+      <c r="E113">
+        <v>23.7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>79.158299999999997</v>
       </c>
@@ -4359,8 +6332,14 @@
       <c r="C114">
         <v>89.055000000000007</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D114">
+        <v>45</v>
+      </c>
+      <c r="E114">
+        <v>23.8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>80.231700000000004</v>
       </c>
@@ -4370,8 +6349,14 @@
       <c r="C115">
         <v>89.91</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D115">
+        <v>45.11</v>
+      </c>
+      <c r="E115">
+        <v>23.88</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>80.790000000000006</v>
       </c>
@@ -4381,8 +6366,14 @@
       <c r="C116">
         <v>89.293300000000002</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D116">
+        <v>45.08</v>
+      </c>
+      <c r="E116">
+        <v>23.87</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>81.008300000000006</v>
       </c>
@@ -4392,8 +6383,14 @@
       <c r="C117">
         <v>89.545000000000002</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D117">
+        <v>45.18</v>
+      </c>
+      <c r="E117">
+        <v>23.93</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>82.31</v>
       </c>
@@ -4403,8 +6400,14 @@
       <c r="C118">
         <v>89.4983</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D118">
+        <v>45.19</v>
+      </c>
+      <c r="E118">
+        <v>23.97</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>80.863299999999995</v>
       </c>
@@ -4414,8 +6417,14 @@
       <c r="C119">
         <v>90.173299999999998</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D119">
+        <v>45.17</v>
+      </c>
+      <c r="E119">
+        <v>24.05</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>82.463300000000004</v>
       </c>
@@ -4425,8 +6434,14 @@
       <c r="C120">
         <v>88.386700000000005</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D120">
+        <v>45.19</v>
+      </c>
+      <c r="E120">
+        <v>24.18</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>80.356700000000004</v>
       </c>
@@ -4436,8 +6451,14 @@
       <c r="C121">
         <v>89.378299999999996</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D121">
+        <v>45.19</v>
+      </c>
+      <c r="E121">
+        <v>24.19</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>79.878299999999996</v>
       </c>
@@ -4447,8 +6468,14 @@
       <c r="C122">
         <v>89.678299999999993</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D122">
+        <v>45.25</v>
+      </c>
+      <c r="E122">
+        <v>24.26</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>80.573300000000003</v>
       </c>
@@ -4458,8 +6485,14 @@
       <c r="C123">
         <v>89.473299999999995</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D123">
+        <v>45.45</v>
+      </c>
+      <c r="E123">
+        <v>24.22</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>81.638300000000001</v>
       </c>
@@ -4469,8 +6502,14 @@
       <c r="C124">
         <v>90.194999999999993</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D124">
+        <v>45.42</v>
+      </c>
+      <c r="E124">
+        <v>24.23</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>80.298299999999998</v>
       </c>
@@ -4480,8 +6519,14 @@
       <c r="C125">
         <v>89.97</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D125">
+        <v>45.63</v>
+      </c>
+      <c r="E125">
+        <v>24.35</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>82.808300000000003</v>
       </c>
@@ -4491,8 +6536,14 @@
       <c r="C126">
         <v>89.583299999999994</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D126">
+        <v>45.66</v>
+      </c>
+      <c r="E126">
+        <v>24.31</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>83.638300000000001</v>
       </c>
@@ -4502,8 +6553,14 @@
       <c r="C127">
         <v>88.864999999999995</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D127">
+        <v>45.66</v>
+      </c>
+      <c r="E127">
+        <v>24.38</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>83.09</v>
       </c>
@@ -4513,8 +6570,14 @@
       <c r="C128">
         <v>89.448300000000003</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D128">
+        <v>45.68</v>
+      </c>
+      <c r="E128">
+        <v>24.46</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>82.655000000000001</v>
       </c>
@@ -4524,8 +6587,14 @@
       <c r="C129">
         <v>89.295000000000002</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D129">
+        <v>45.7</v>
+      </c>
+      <c r="E129">
+        <v>24.48</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>83.644999999999996</v>
       </c>
@@ -4535,8 +6604,14 @@
       <c r="C130">
         <v>89.191699999999997</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D130">
+        <v>45.74</v>
+      </c>
+      <c r="E130">
+        <v>24.49</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>84.093299999999999</v>
       </c>
@@ -4546,8 +6621,14 @@
       <c r="C131">
         <v>89.653300000000002</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D131">
+        <v>45.74</v>
+      </c>
+      <c r="E131">
+        <v>24.49</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>83.334999999999994</v>
       </c>
@@ -4557,8 +6638,14 @@
       <c r="C132">
         <v>89.33</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D132">
+        <v>45.74</v>
+      </c>
+      <c r="E132">
+        <v>24.43</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>80.291700000000006</v>
       </c>
@@ -4568,8 +6655,14 @@
       <c r="C133">
         <v>89.328299999999999</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D133">
+        <v>45.7</v>
+      </c>
+      <c r="E133">
+        <v>24.46</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>82.183300000000003</v>
       </c>
@@ -4579,8 +6672,14 @@
       <c r="C134">
         <v>88.991699999999994</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D134">
+        <v>45.81</v>
+      </c>
+      <c r="E134">
+        <v>24.48</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>82.385000000000005</v>
       </c>
@@ -4590,8 +6689,14 @@
       <c r="C135">
         <v>89.555000000000007</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D135">
+        <v>45.78</v>
+      </c>
+      <c r="E135">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>83.811700000000002</v>
       </c>
@@ -4601,8 +6706,14 @@
       <c r="C136">
         <v>89.55</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D136">
+        <v>45.67</v>
+      </c>
+      <c r="E136">
+        <v>24.46</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>80.651700000000005</v>
       </c>
@@ -4612,8 +6723,14 @@
       <c r="C137">
         <v>89.906700000000001</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D137">
+        <v>45.7</v>
+      </c>
+      <c r="E137">
+        <v>24.53</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>83.44</v>
       </c>
@@ -4623,8 +6740,14 @@
       <c r="C138">
         <v>89.386700000000005</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D138">
+        <v>45.7</v>
+      </c>
+      <c r="E138">
+        <v>24.57</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>82.256699999999995</v>
       </c>
@@ -4634,8 +6757,14 @@
       <c r="C139">
         <v>88.771699999999996</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D139">
+        <v>45.69</v>
+      </c>
+      <c r="E139">
+        <v>24.58</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>81.064999999999998</v>
       </c>
@@ -4645,8 +6774,14 @@
       <c r="C140">
         <v>89.361699999999999</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D140">
+        <v>45.69</v>
+      </c>
+      <c r="E140">
+        <v>24.54</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>81.448300000000003</v>
       </c>
@@ -4656,8 +6791,14 @@
       <c r="C141">
         <v>89.988299999999995</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D141">
+        <v>45.68</v>
+      </c>
+      <c r="E141">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>82.055000000000007</v>
       </c>
@@ -4667,8 +6808,14 @@
       <c r="C142">
         <v>89.5</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D142">
+        <v>45.66</v>
+      </c>
+      <c r="E142">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>80.245000000000005</v>
       </c>
@@ -4678,8 +6825,14 @@
       <c r="C143">
         <v>89.631699999999995</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D143">
+        <v>45.68</v>
+      </c>
+      <c r="E143">
+        <v>24.52</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>78.886700000000005</v>
       </c>
@@ -4689,8 +6842,14 @@
       <c r="C144">
         <v>90.223299999999995</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D144">
+        <v>45.64</v>
+      </c>
+      <c r="E144">
+        <v>24.53</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>78.33</v>
       </c>
@@ -4700,8 +6859,14 @@
       <c r="C145">
         <v>90.653300000000002</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D145">
+        <v>45.63</v>
+      </c>
+      <c r="E145">
+        <v>24.6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>81.944999999999993</v>
       </c>
@@ -4711,8 +6876,14 @@
       <c r="C146">
         <v>90.228300000000004</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D146">
+        <v>45.62</v>
+      </c>
+      <c r="E146">
+        <v>24.68</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>81.903300000000002</v>
       </c>
@@ -4722,8 +6893,14 @@
       <c r="C147">
         <v>89.936700000000002</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D147">
+        <v>45.63</v>
+      </c>
+      <c r="E147">
+        <v>24.68</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>81.146699999999996</v>
       </c>
@@ -4733,8 +6910,14 @@
       <c r="C148">
         <v>90.211699999999993</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D148">
+        <v>45.67</v>
+      </c>
+      <c r="E148">
+        <v>24.69</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>83.204999999999998</v>
       </c>
@@ -4744,8 +6927,14 @@
       <c r="C149">
         <v>89.625</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D149">
+        <v>45.78</v>
+      </c>
+      <c r="E149">
+        <v>24.67</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>82.213300000000004</v>
       </c>
@@ -4755,8 +6944,14 @@
       <c r="C150">
         <v>89.6417</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D150">
+        <v>45.82</v>
+      </c>
+      <c r="E150">
+        <v>24.78</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>82.583299999999994</v>
       </c>
@@ -4766,8 +6961,14 @@
       <c r="C151">
         <v>90.271699999999996</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D151">
+        <v>45.84</v>
+      </c>
+      <c r="E151">
+        <v>24.84</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>82.453299999999999</v>
       </c>
@@ -4777,8 +6978,14 @@
       <c r="C152">
         <v>89.988299999999995</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D152">
+        <v>45.84</v>
+      </c>
+      <c r="E152">
+        <v>24.85</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>81.911699999999996</v>
       </c>
@@ -4788,8 +6995,14 @@
       <c r="C153">
         <v>90.696700000000007</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D153">
+        <v>45.87</v>
+      </c>
+      <c r="E153">
+        <v>24.86</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>82.72</v>
       </c>
@@ -4799,8 +7012,14 @@
       <c r="C154">
         <v>90.178299999999993</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D154">
+        <v>45.72</v>
+      </c>
+      <c r="E154">
+        <v>24.91</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>83.06</v>
       </c>
@@ -4810,8 +7029,14 @@
       <c r="C155">
         <v>90.436700000000002</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D155">
+        <v>45.73</v>
+      </c>
+      <c r="E155">
+        <v>24.92</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>84.155000000000001</v>
       </c>
@@ -4821,8 +7046,14 @@
       <c r="C156">
         <v>90.438299999999998</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D156">
+        <v>45.73</v>
+      </c>
+      <c r="E156">
+        <v>24.97</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>79.823300000000003</v>
       </c>
@@ -4832,8 +7063,14 @@
       <c r="C157">
         <v>90.283299999999997</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D157">
+        <v>45.82</v>
+      </c>
+      <c r="E157">
+        <v>25.02</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>82.183300000000003</v>
       </c>
@@ -4843,8 +7080,14 @@
       <c r="C158">
         <v>90.348299999999995</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D158">
+        <v>45.82</v>
+      </c>
+      <c r="E158">
+        <v>25.04</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>82.821700000000007</v>
       </c>
@@ -4854,8 +7097,14 @@
       <c r="C159">
         <v>89.16</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D159">
+        <v>45.92</v>
+      </c>
+      <c r="E159">
+        <v>25.07</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>84.018299999999996</v>
       </c>
@@ -4865,8 +7114,14 @@
       <c r="C160">
         <v>89.068299999999994</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D160">
+        <v>45.92</v>
+      </c>
+      <c r="E160">
+        <v>25.15</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>81.338300000000004</v>
       </c>
@@ -4876,8 +7131,14 @@
       <c r="C161">
         <v>90.063299999999998</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D161">
+        <v>45.94</v>
+      </c>
+      <c r="E161">
+        <v>25.18</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>80.456699999999998</v>
       </c>
@@ -4887,8 +7148,14 @@
       <c r="C162">
         <v>90.333299999999994</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D162">
+        <v>45.95</v>
+      </c>
+      <c r="E162">
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>81.418300000000002</v>
       </c>
@@ -4898,8 +7165,14 @@
       <c r="C163">
         <v>89.986699999999999</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D163">
+        <v>45.96</v>
+      </c>
+      <c r="E163">
+        <v>25.23</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>80.991699999999994</v>
       </c>
@@ -4909,8 +7182,14 @@
       <c r="C164">
         <v>90.698300000000003</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D164">
+        <v>45.96</v>
+      </c>
+      <c r="E164">
+        <v>25.27</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>82</v>
       </c>
@@ -4920,8 +7199,14 @@
       <c r="C165">
         <v>90.0017</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D165">
+        <v>45.99</v>
+      </c>
+      <c r="E165">
+        <v>25.27</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>81.394999999999996</v>
       </c>
@@ -4931,8 +7216,14 @@
       <c r="C166">
         <v>90.188299999999998</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D166">
+        <v>45.99</v>
+      </c>
+      <c r="E166">
+        <v>25.27</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>75.62</v>
       </c>
@@ -4942,8 +7233,14 @@
       <c r="C167">
         <v>90.331699999999998</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D167">
+        <v>46.02</v>
+      </c>
+      <c r="E167">
+        <v>25.28</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>82.098299999999995</v>
       </c>
@@ -4953,8 +7250,14 @@
       <c r="C168">
         <v>90.901700000000005</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D168">
+        <v>46.02</v>
+      </c>
+      <c r="E168">
+        <v>25.28</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>82.5167</v>
       </c>
@@ -4964,8 +7267,14 @@
       <c r="C169">
         <v>90.871700000000004</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D169">
+        <v>46</v>
+      </c>
+      <c r="E169">
+        <v>25.33</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>71.09</v>
       </c>
@@ -4975,8 +7284,14 @@
       <c r="C170">
         <v>90.62</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D170">
+        <v>46.07</v>
+      </c>
+      <c r="E170">
+        <v>25.41</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>76.186700000000002</v>
       </c>
@@ -4986,8 +7301,14 @@
       <c r="C171">
         <v>90.598299999999995</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D171">
+        <v>46.28</v>
+      </c>
+      <c r="E171">
+        <v>25.43</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>81.31</v>
       </c>
@@ -4997,8 +7318,14 @@
       <c r="C172">
         <v>91.094999999999999</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D172">
+        <v>46.29</v>
+      </c>
+      <c r="E172">
+        <v>25.46</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>79.046700000000001</v>
       </c>
@@ -5008,8 +7335,14 @@
       <c r="C173">
         <v>90.286699999999996</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D173">
+        <v>46.35</v>
+      </c>
+      <c r="E173">
+        <v>25.46</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>81.465000000000003</v>
       </c>
@@ -5019,8 +7352,14 @@
       <c r="C174">
         <v>90.731700000000004</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D174">
+        <v>46.34</v>
+      </c>
+      <c r="E174">
+        <v>25.43</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>81.915000000000006</v>
       </c>
@@ -5030,8 +7369,14 @@
       <c r="C175">
         <v>89.89</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D175">
+        <v>46.32</v>
+      </c>
+      <c r="E175">
+        <v>25.45</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>80.681700000000006</v>
       </c>
@@ -5041,8 +7386,14 @@
       <c r="C176">
         <v>90.135000000000005</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D176">
+        <v>46.32</v>
+      </c>
+      <c r="E176">
+        <v>25.46</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>82.563299999999998</v>
       </c>
@@ -5052,8 +7403,14 @@
       <c r="C177">
         <v>89.901700000000005</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D177">
+        <v>46.3</v>
+      </c>
+      <c r="E177">
+        <v>25.44</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>80.363299999999995</v>
       </c>
@@ -5063,8 +7420,14 @@
       <c r="C178">
         <v>90.564999999999998</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D178">
+        <v>46.35</v>
+      </c>
+      <c r="E178">
+        <v>25.46</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>80.833299999999994</v>
       </c>
@@ -5074,8 +7437,14 @@
       <c r="C179">
         <v>90.046700000000001</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D179">
+        <v>46.37</v>
+      </c>
+      <c r="E179">
+        <v>25.51</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>82.686700000000002</v>
       </c>
@@ -5085,8 +7454,14 @@
       <c r="C180">
         <v>89.3733</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D180">
+        <v>46.38</v>
+      </c>
+      <c r="E180">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>83.763300000000001</v>
       </c>
@@ -5096,8 +7471,14 @@
       <c r="C181">
         <v>89.153300000000002</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D181">
+        <v>46.38</v>
+      </c>
+      <c r="E181">
+        <v>25.48</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>84.278300000000002</v>
       </c>
@@ -5107,8 +7488,14 @@
       <c r="C182">
         <v>89.566699999999997</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D182">
+        <v>46.49</v>
+      </c>
+      <c r="E182">
+        <v>25.48</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>82.916700000000006</v>
       </c>
@@ -5118,8 +7505,14 @@
       <c r="C183">
         <v>89.296700000000001</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D183">
+        <v>46.52</v>
+      </c>
+      <c r="E183">
+        <v>25.52</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>82.263300000000001</v>
       </c>
@@ -5129,8 +7522,14 @@
       <c r="C184">
         <v>89.2517</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D184">
+        <v>46.52</v>
+      </c>
+      <c r="E184">
+        <v>25.52</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>83.996700000000004</v>
       </c>
@@ -5140,8 +7539,14 @@
       <c r="C185">
         <v>89.8733</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D185">
+        <v>46.55</v>
+      </c>
+      <c r="E185">
+        <v>25.57</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>84.456699999999998</v>
       </c>
@@ -5151,8 +7556,14 @@
       <c r="C186">
         <v>89.601699999999994</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D186">
+        <v>46.56</v>
+      </c>
+      <c r="E186">
+        <v>25.63</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>84.084999999999994</v>
       </c>
@@ -5162,8 +7573,14 @@
       <c r="C187">
         <v>90.038300000000007</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D187">
+        <v>46.52</v>
+      </c>
+      <c r="E187">
+        <v>25.64</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>83.625</v>
       </c>
@@ -5173,8 +7590,14 @@
       <c r="C188">
         <v>90.426699999999997</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D188">
+        <v>46.57</v>
+      </c>
+      <c r="E188">
+        <v>25.65</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>81.94</v>
       </c>
@@ -5184,8 +7607,14 @@
       <c r="C189">
         <v>89.481700000000004</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D189">
+        <v>46.58</v>
+      </c>
+      <c r="E189">
+        <v>25.64</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>82.423299999999998</v>
       </c>
@@ -5195,8 +7624,14 @@
       <c r="C190">
         <v>89.883300000000006</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D190">
+        <v>46.58</v>
+      </c>
+      <c r="E190">
+        <v>25.61</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>84.716700000000003</v>
       </c>
@@ -5206,8 +7641,14 @@
       <c r="C191">
         <v>89.816699999999997</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D191">
+        <v>46.59</v>
+      </c>
+      <c r="E191">
+        <v>25.59</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>84</v>
       </c>
@@ -5217,8 +7658,14 @@
       <c r="C192">
         <v>89.883300000000006</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D192">
+        <v>46.56</v>
+      </c>
+      <c r="E192">
+        <v>25.65</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>84.0167</v>
       </c>
@@ -5228,8 +7675,14 @@
       <c r="C193">
         <v>90.243300000000005</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D193">
+        <v>46.73</v>
+      </c>
+      <c r="E193">
+        <v>25.62</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>83.944999999999993</v>
       </c>
@@ -5239,8 +7692,14 @@
       <c r="C194">
         <v>90.17</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D194">
+        <v>46.71</v>
+      </c>
+      <c r="E194">
+        <v>25.66</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>83.711699999999993</v>
       </c>
@@ -5250,8 +7709,14 @@
       <c r="C195">
         <v>90.101699999999994</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D195">
+        <v>46.71</v>
+      </c>
+      <c r="E195">
+        <v>25.65</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>80.8917</v>
       </c>
@@ -5261,8 +7726,14 @@
       <c r="C196">
         <v>90.64</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D196">
+        <v>46.71</v>
+      </c>
+      <c r="E196">
+        <v>25.65</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>81.165000000000006</v>
       </c>
@@ -5272,8 +7743,14 @@
       <c r="C197">
         <v>90.7</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D197">
+        <v>46.69</v>
+      </c>
+      <c r="E197">
+        <v>25.69</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>83.098299999999995</v>
       </c>
@@ -5283,8 +7760,14 @@
       <c r="C198">
         <v>90.9983</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D198">
+        <v>46.68</v>
+      </c>
+      <c r="E198">
+        <v>25.71</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>84.293300000000002</v>
       </c>
@@ -5294,8 +7777,14 @@
       <c r="C199">
         <v>90.673299999999998</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D199">
+        <v>46.74</v>
+      </c>
+      <c r="E199">
+        <v>25.71</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>82.715000000000003</v>
       </c>
@@ -5305,8 +7794,14 @@
       <c r="C200">
         <v>90.746700000000004</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D200">
+        <v>46.73</v>
+      </c>
+      <c r="E200">
+        <v>25.72</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>81.34</v>
       </c>
@@ -5316,8 +7811,14 @@
       <c r="C201">
         <v>90.555000000000007</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D201">
+        <v>46.73</v>
+      </c>
+      <c r="E201">
+        <v>25.74</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203">
         <f>MAX(A2:A201)</f>
         <v>84.716700000000003</v>
